--- a/000 Beverage Company Master List 000.xlsx
+++ b/000 Beverage Company Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Staples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A461DE8-14C5-43B8-87B0-059C7455E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60031A17-6730-4890-8EC1-DE6D9B56BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{5A7D76FB-15B0-44D5-93A9-77C743209909}"/>
+    <workbookView xWindow="7350" yWindow="-30" windowWidth="21570" windowHeight="14010" xr2:uid="{5A7D76FB-15B0-44D5-93A9-77C743209909}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -649,7 +649,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
@@ -660,42 +659,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -871,6 +834,42 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1000,28 +999,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{624A2A6F-3ED7-4618-A5A9-C77BBA5012DB}" name="Table4" displayName="Table4" ref="O2:Z57" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{624A2A6F-3ED7-4618-A5A9-C77BBA5012DB}" name="Table4" displayName="Table4" ref="O2:Z57" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="O2:Z57" xr:uid="{624A2A6F-3ED7-4618-A5A9-C77BBA5012DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:Y57">
     <sortCondition ref="P2:P57"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0EFCC6BF-C0C2-4D2A-A726-0FFF4C12E2CC}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2AC5277A-7C52-4EAF-ACEE-9317396DC4D5}" name="Ticker" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{2374FC66-2086-4A4D-AA67-43497C6BB072}" name="Price" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C2BB9F7E-A43B-4F5A-BEDF-A40FB4D260ED}" name="Share Count " dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{027A2092-90DB-4299-986E-9A50CB8921EC}" name="MC ($M)" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{0EFCC6BF-C0C2-4D2A-A726-0FFF4C12E2CC}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2AC5277A-7C52-4EAF-ACEE-9317396DC4D5}" name="Ticker" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2374FC66-2086-4A4D-AA67-43497C6BB072}" name="Price" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{C2BB9F7E-A43B-4F5A-BEDF-A40FB4D260ED}" name="Share Count " dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{027A2092-90DB-4299-986E-9A50CB8921EC}" name="MC ($M)" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0744B2B-BE1B-4CBC-AECD-BAE9BBA95E39}" name="Cash ($M)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D7358A97-AA73-4E73-927A-6E952EA028CC}" name="Debt ($M)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C563F732-C38F-4B3E-9A29-155D4D88094C}" name="EV ($M)" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{F0744B2B-BE1B-4CBC-AECD-BAE9BBA95E39}" name="Cash ($M)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{D7358A97-AA73-4E73-927A-6E952EA028CC}" name="Debt ($M)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C563F732-C38F-4B3E-9A29-155D4D88094C}" name="EV ($M)" dataDxfId="4">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DDFBE772-F75A-4181-B052-E453B651A511}" name="Updated " dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EEB8834B-AADD-4090-83D7-BE6C6E2E9489}" name="Category 1" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{2048DEF2-C12D-48F5-A86A-8B346879DF35}" name="Category 2" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{86DA5C60-7C74-4323-88A5-C9269415EBDF}" name="Additional Comments" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DDFBE772-F75A-4181-B052-E453B651A511}" name="Updated " dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EEB8834B-AADD-4090-83D7-BE6C6E2E9489}" name="Category 1" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{2048DEF2-C12D-48F5-A86A-8B346879DF35}" name="Category 2" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{86DA5C60-7C74-4323-88A5-C9269415EBDF}" name="Additional Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1326,40 +1325,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA533FF5-BDB7-40C0-A440-FA3721E51D5A}">
   <dimension ref="A2:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1"/>
-    <col min="4" max="5" width="16.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9.1328125" style="1"/>
-    <col min="14" max="14" width="3.06640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.53125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="3" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.73046875" style="4" customWidth="1"/>
-    <col min="20" max="21" width="12.73046875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.73046875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="25.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.796875" style="1" customWidth="1"/>
-    <col min="28" max="29" width="9.1328125" style="1"/>
-    <col min="30" max="30" width="8.9296875" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1328125" style="1"/>
+    <col min="19" max="19" width="12.7109375" style="4" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="9" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="13.9">
+    <row r="2" spans="1:26" ht="15">
       <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.25" customHeight="1">
+    <row r="3" spans="1:26" ht="13.35" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1407,8 +1406,6 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
       <c r="S3" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1419,7 +1416,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
         <v>132</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.25" customHeight="1">
+    <row r="4" spans="1:26" ht="13.35" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1445,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W4" s="11"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
         <v>132</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.25" customHeight="1">
+    <row r="5" spans="1:26" ht="13.35" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1464,6 @@
       <c r="P5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="11"/>
       <c r="S5" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1478,7 +1474,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W5" s="11"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
         <v>132</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.25" customHeight="1">
+    <row r="6" spans="1:26" ht="13.35" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1503,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W6" s="11"/>
+      <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
         <v>132</v>
       </c>
@@ -1518,7 +1514,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.25" customHeight="1">
+    <row r="7" spans="1:26" ht="13.35" customHeight="1">
       <c r="B7" s="2"/>
       <c r="J7" s="8"/>
       <c r="O7" s="1" t="s">
@@ -1527,8 +1523,6 @@
       <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
       <c r="S7" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1539,7 +1533,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W7" s="11"/>
+      <c r="W7" s="1"/>
       <c r="X7" s="1" t="s">
         <v>137</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.25" customHeight="1">
+    <row r="8" spans="1:26" ht="13.35" customHeight="1">
       <c r="J8" s="8"/>
       <c r="O8" s="1" t="s">
         <v>105</v>
@@ -1565,7 +1559,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W8" s="11"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
         <v>132</v>
       </c>
@@ -1576,7 +1570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.25" customHeight="1">
+    <row r="9" spans="1:26" ht="13.35" customHeight="1">
       <c r="J9" s="8"/>
       <c r="O9" s="1" t="s">
         <v>62</v>
@@ -1584,7 +1578,6 @@
       <c r="P9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="11"/>
       <c r="S9" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1595,7 +1588,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W9" s="11"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
         <v>137</v>
       </c>
@@ -1606,7 +1599,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.25" customHeight="1">
+    <row r="10" spans="1:26" ht="13.35" customHeight="1">
       <c r="G10" s="9"/>
       <c r="O10" s="1" t="s">
         <v>22</v>
@@ -1614,7 +1607,6 @@
       <c r="P10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="11"/>
       <c r="S10" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1625,7 +1617,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W10" s="11"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
         <v>132</v>
       </c>
@@ -1633,7 +1625,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.25" customHeight="1">
+    <row r="11" spans="1:26" ht="13.35" customHeight="1">
       <c r="A11" s="5">
         <v>45240</v>
       </c>
@@ -1648,7 +1640,6 @@
       <c r="P11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" s="11"/>
       <c r="S11" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1659,7 +1650,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W11" s="11"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
         <v>132</v>
       </c>
@@ -1667,7 +1658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.25" customHeight="1">
+    <row r="12" spans="1:26" ht="13.35" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1685,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
         <v>137</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.25" customHeight="1">
+    <row r="13" spans="1:26" ht="13.35" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1714,6 @@
       <c r="P13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="11"/>
       <c r="S13" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1734,7 +1724,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
         <v>137</v>
       </c>
@@ -1742,7 +1732,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.25" customHeight="1">
+    <row r="14" spans="1:26" ht="13.35" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1763,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W14" s="11"/>
+      <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
         <v>132</v>
       </c>
@@ -1781,7 +1771,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13.25" customHeight="1">
+    <row r="15" spans="1:26" ht="13.35" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1794,6 @@
       <c r="P15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="11"/>
       <c r="S15" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1815,7 +1804,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W15" s="11"/>
+      <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
         <v>137</v>
       </c>
@@ -1823,7 +1812,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13.25" customHeight="1">
+    <row r="16" spans="1:26" ht="13.35" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1841,10 +1830,9 @@
       <c r="O16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="11"/>
       <c r="S16" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1855,7 +1843,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W16" s="11"/>
+      <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
         <v>137</v>
       </c>
@@ -1863,7 +1851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="13.25" customHeight="1">
+    <row r="17" spans="1:40" ht="13.35" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1874,6 @@
       <c r="P17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="11"/>
       <c r="S17" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1897,31 +1884,30 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W17" s="11"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="1" t="s">
         <v>132</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-    </row>
-    <row r="18" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="1:40" ht="13.35" customHeight="1">
       <c r="O18" s="1" t="s">
         <v>125</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q18" s="11"/>
       <c r="S18" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -1932,24 +1918,24 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W18" s="11"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
-    </row>
-    <row r="19" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="1:40" ht="13.35" customHeight="1">
       <c r="O19" s="1" t="s">
         <v>93</v>
       </c>
@@ -1966,31 +1952,30 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="1"/>
       <c r="X19" s="1" t="s">
         <v>132</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
-    </row>
-    <row r="20" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="1:40" ht="13.35" customHeight="1">
       <c r="O20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="11"/>
       <c r="S20" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2001,7 +1986,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W20" s="11"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2011,17 +1996,17 @@
       <c r="Z20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-    </row>
-    <row r="21" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="1:40" ht="13.35" customHeight="1">
       <c r="O21" s="1" t="s">
         <v>97</v>
       </c>
@@ -2038,32 +2023,30 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W21" s="11"/>
+      <c r="W21" s="1"/>
       <c r="X21" s="1" t="s">
         <v>137</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-    </row>
-    <row r="22" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="1:40" ht="13.35" customHeight="1">
       <c r="O22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
       <c r="S22" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2074,7 +2057,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W22" s="11"/>
+      <c r="W22" s="1"/>
       <c r="X22" s="1" t="s">
         <v>132</v>
       </c>
@@ -2084,24 +2067,23 @@
       <c r="Z22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-    </row>
-    <row r="23" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="1:40" ht="13.35" customHeight="1">
       <c r="O23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R23" s="11"/>
       <c r="S23" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2112,7 +2094,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W23" s="11"/>
+      <c r="W23" s="1"/>
       <c r="X23" s="1" t="s">
         <v>137</v>
       </c>
@@ -2122,24 +2104,23 @@
       <c r="Z23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-    </row>
-    <row r="24" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="1:40" ht="13.35" customHeight="1">
       <c r="O24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q24" s="11"/>
       <c r="S24" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2150,31 +2131,30 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W24" s="11"/>
+      <c r="W24" s="1"/>
       <c r="X24" s="1" t="s">
         <v>132</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-    </row>
-    <row r="25" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="1:40" ht="13.35" customHeight="1">
       <c r="O25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="11"/>
       <c r="S25" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2185,7 +2165,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W25" s="11"/>
+      <c r="W25" s="1"/>
       <c r="X25" s="1" t="s">
         <v>137</v>
       </c>
@@ -2195,24 +2175,23 @@
       <c r="Z25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-    </row>
-    <row r="26" spans="1:40" ht="13.25" customHeight="1">
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="1:40" ht="13.35" customHeight="1">
       <c r="O26" s="1" t="s">
         <v>117</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q26" s="11"/>
       <c r="S26" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2223,7 +2202,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W26" s="11"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
         <v>137</v>
       </c>
@@ -2231,14 +2210,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="13.25" customHeight="1">
+    <row r="27" spans="1:40" ht="13.35" customHeight="1">
       <c r="O27" s="1" t="s">
         <v>74</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="11"/>
       <c r="S27" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2249,7 +2227,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W27" s="11"/>
+      <c r="W27" s="1"/>
       <c r="X27" s="1" t="s">
         <v>137</v>
       </c>
@@ -2260,14 +2238,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="13.25" customHeight="1">
+    <row r="28" spans="1:40" ht="13.35" customHeight="1">
       <c r="O28" s="1" t="s">
         <v>119</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q28" s="11"/>
       <c r="S28" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2278,7 +2255,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W28" s="11"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
         <v>137</v>
       </c>
@@ -2289,7 +2266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="13.25" customHeight="1">
+    <row r="29" spans="1:40" ht="13.35" customHeight="1">
       <c r="O29" s="1" t="s">
         <v>95</v>
       </c>
@@ -2306,7 +2283,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W29" s="11"/>
+      <c r="W29" s="1"/>
       <c r="X29" s="1" t="s">
         <v>137</v>
       </c>
@@ -2314,14 +2291,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="13.25" customHeight="1">
+    <row r="30" spans="1:40" ht="13.35" customHeight="1">
       <c r="O30" s="1" t="s">
         <v>75</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="11"/>
       <c r="S30" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2332,7 +2308,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W30" s="11"/>
+      <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
         <v>132</v>
       </c>
@@ -2340,11 +2316,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="13.25" customHeight="1">
+    <row r="31" spans="1:40" ht="13.35" customHeight="1">
       <c r="O31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S31" s="4">
@@ -2357,7 +2333,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W31" s="11"/>
+      <c r="W31" s="1"/>
       <c r="X31" s="1" t="s">
         <v>137</v>
       </c>
@@ -2365,14 +2341,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="13.25" customHeight="1">
+    <row r="32" spans="1:40" ht="13.35" customHeight="1">
       <c r="O32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="11"/>
       <c r="S32" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2383,7 +2358,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W32" s="11"/>
+      <c r="W32" s="1"/>
       <c r="X32" s="1" t="s">
         <v>137</v>
       </c>
@@ -2391,7 +2366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="15:26" ht="13.25" customHeight="1">
+    <row r="33" spans="15:26" ht="13.35" customHeight="1">
       <c r="O33" s="1" t="s">
         <v>102</v>
       </c>
@@ -2408,7 +2383,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W33" s="11"/>
+      <c r="W33" s="1"/>
       <c r="X33" s="1" t="s">
         <v>137</v>
       </c>
@@ -2419,14 +2394,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="15:26" ht="13.25" customHeight="1">
+    <row r="34" spans="15:26" ht="13.35" customHeight="1">
       <c r="O34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R34" s="11"/>
       <c r="S34" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2437,7 +2411,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W34" s="11"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
         <v>132</v>
       </c>
@@ -2448,14 +2422,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="15:26" ht="13.25" customHeight="1">
+    <row r="35" spans="15:26" ht="13.35" customHeight="1">
       <c r="O35" s="1" t="s">
         <v>107</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q35" s="11"/>
       <c r="S35" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2466,7 +2439,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W35" s="11"/>
+      <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
         <v>132</v>
       </c>
@@ -2474,7 +2447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="15:26" ht="13.25" customHeight="1">
+    <row r="36" spans="15:26" ht="13.35" customHeight="1">
       <c r="O36" s="1" t="s">
         <v>96</v>
       </c>
@@ -2491,7 +2464,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W36" s="11"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="1" t="s">
         <v>137</v>
       </c>
@@ -2499,14 +2472,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="15:26" ht="13.25" customHeight="1">
+    <row r="37" spans="15:26" ht="13.35" customHeight="1">
       <c r="O37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="11"/>
       <c r="S37" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2517,7 +2489,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W37" s="11"/>
+      <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
         <v>137</v>
       </c>
@@ -2528,15 +2500,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="15:26" ht="13.25" customHeight="1">
+    <row r="38" spans="15:26" ht="13.35" customHeight="1">
       <c r="O38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
       <c r="S38" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2547,7 +2517,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W38" s="11"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1" t="s">
         <v>132</v>
       </c>
@@ -2558,7 +2528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="15:26" ht="13.25" customHeight="1">
+    <row r="39" spans="15:26" ht="13.35" customHeight="1">
       <c r="O39" s="1" t="s">
         <v>113</v>
       </c>
@@ -2575,7 +2545,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W39" s="11"/>
+      <c r="W39" s="1"/>
       <c r="X39" s="1" t="s">
         <v>137</v>
       </c>
@@ -2586,14 +2556,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="15:26" ht="13.25" customHeight="1">
+    <row r="40" spans="15:26" ht="13.35" customHeight="1">
       <c r="O40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q40" s="11"/>
       <c r="S40" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2604,7 +2573,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W40" s="11"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="1" t="s">
         <v>137</v>
       </c>
@@ -2615,7 +2584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="15:26" ht="13.25" customHeight="1">
+    <row r="41" spans="15:26" ht="13.35" customHeight="1">
       <c r="O41" s="1" t="s">
         <v>101</v>
       </c>
@@ -2632,7 +2601,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W41" s="11"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
         <v>137</v>
       </c>
@@ -2643,15 +2612,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="15:26" ht="13.25" customHeight="1">
+    <row r="42" spans="15:26" ht="13.35" customHeight="1">
       <c r="O42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
       <c r="S42" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2662,7 +2629,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W42" s="11"/>
+      <c r="W42" s="1"/>
       <c r="X42" s="1" t="s">
         <v>137</v>
       </c>
@@ -2670,7 +2637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="15:26" ht="13.25" customHeight="1">
+    <row r="43" spans="15:26" ht="13.35" customHeight="1">
       <c r="O43" s="1" t="s">
         <v>109</v>
       </c>
@@ -2687,7 +2654,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W43" s="11"/>
+      <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
         <v>137</v>
       </c>
@@ -2695,7 +2662,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="15:26" ht="13.25" customHeight="1">
+    <row r="44" spans="15:26" ht="13.35" customHeight="1">
       <c r="O44" s="1" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2679,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W44" s="11"/>
+      <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
         <v>137</v>
       </c>
@@ -2723,7 +2690,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="15:26" ht="13.25" customHeight="1">
+    <row r="45" spans="15:26" ht="13.35" customHeight="1">
       <c r="O45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2740,7 +2707,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W45" s="11"/>
+      <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
         <v>137</v>
       </c>
@@ -2751,14 +2718,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="15:26" ht="13.25" customHeight="1">
+    <row r="46" spans="15:26" ht="13.35" customHeight="1">
       <c r="O46" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q46" s="11"/>
       <c r="S46" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2769,7 +2735,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W46" s="11"/>
+      <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
         <v>132</v>
       </c>
@@ -2777,7 +2743,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="15:26" ht="13.25" customHeight="1">
+    <row r="47" spans="15:26" ht="13.35" customHeight="1">
       <c r="O47" s="1" t="s">
         <v>82</v>
       </c>
@@ -2794,7 +2760,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W47" s="11"/>
+      <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
         <v>132</v>
       </c>
@@ -2805,14 +2771,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="15:26" ht="13.25" customHeight="1">
+    <row r="48" spans="15:26" ht="13.35" customHeight="1">
       <c r="O48" s="1" t="s">
         <v>68</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="11"/>
       <c r="S48" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2823,7 +2788,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W48" s="11"/>
+      <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
         <v>132</v>
       </c>
@@ -2848,7 +2813,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W49" s="11"/>
+      <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
         <v>132</v>
       </c>
@@ -2856,15 +2821,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="15:26" ht="13.25" customHeight="1">
+    <row r="50" spans="15:26" ht="13.35" customHeight="1">
       <c r="O50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
       <c r="S50" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2875,7 +2838,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W50" s="11"/>
+      <c r="W50" s="1"/>
       <c r="X50" s="1" t="s">
         <v>132</v>
       </c>
@@ -2886,7 +2849,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="15:26" ht="13.25" customHeight="1">
+    <row r="51" spans="15:26" ht="13.35" customHeight="1">
       <c r="O51" s="1" t="s">
         <v>111</v>
       </c>
@@ -2903,7 +2866,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W51" s="11"/>
+      <c r="W51" s="1"/>
       <c r="X51" s="1" t="s">
         <v>137</v>
       </c>
@@ -2914,14 +2877,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="15:26" ht="13.25" customHeight="1">
+    <row r="52" spans="15:26" ht="13.35" customHeight="1">
       <c r="O52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q52" s="11"/>
       <c r="S52" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2932,7 +2894,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W52" s="11"/>
+      <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
         <v>132</v>
       </c>
@@ -2943,14 +2905,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="15:26" ht="13.25" customHeight="1">
+    <row r="53" spans="15:26" ht="13.35" customHeight="1">
       <c r="O53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R53" s="11"/>
       <c r="S53" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>0</v>
@@ -2961,7 +2922,7 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
-      <c r="W53" s="11"/>
+      <c r="W53" s="1"/>
       <c r="X53" s="1" t="s">
         <v>137</v>
       </c>
@@ -2969,65 +2930,54 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="15:26" ht="13.25" customHeight="1">
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
+    <row r="54" spans="15:26" ht="13.35" customHeight="1">
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="W54" s="11"/>
+      <c r="W54" s="1"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="15:26" ht="13.25" customHeight="1">
-      <c r="R55" s="11"/>
+    <row r="55" spans="15:26" ht="13.35" customHeight="1">
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="W55" s="11"/>
+      <c r="W55" s="1"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="15:26" ht="13.25" customHeight="1">
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
+    <row r="56" spans="15:26" ht="13.35" customHeight="1">
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="W56" s="11"/>
+      <c r="W56" s="1"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="15:26" ht="13.25" customHeight="1">
-      <c r="R57" s="11"/>
+    <row r="57" spans="15:26" ht="13.35" customHeight="1">
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="W57" s="11"/>
+      <c r="W57" s="1"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="15:26" ht="13.25" customHeight="1">
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-    </row>
-    <row r="59" spans="15:26" ht="13.25" customHeight="1"/>
-    <row r="60" spans="15:26" ht="13.25" customHeight="1"/>
-    <row r="61" spans="15:26" ht="13.25" customHeight="1"/>
-    <row r="62" spans="15:26" ht="13.25" customHeight="1"/>
-    <row r="63" spans="15:26" ht="13.25" customHeight="1"/>
-    <row r="64" spans="15:26" ht="13.25" customHeight="1"/>
-    <row r="65" ht="13.25" customHeight="1"/>
-    <row r="66" ht="13.25" customHeight="1"/>
-    <row r="67" ht="13.25" customHeight="1"/>
-    <row r="68" ht="13.25" customHeight="1"/>
-    <row r="69" ht="13.25" customHeight="1"/>
-    <row r="70" ht="13.25" customHeight="1"/>
-    <row r="71" ht="13.25" customHeight="1"/>
-    <row r="72" ht="13.25" customHeight="1"/>
-    <row r="73" ht="13.25" customHeight="1"/>
-    <row r="74" ht="13.25" customHeight="1"/>
-    <row r="75" ht="13.25" customHeight="1"/>
-    <row r="76" ht="13.25" customHeight="1"/>
-    <row r="77" ht="13.25" customHeight="1"/>
+    <row r="58" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="59" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="60" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="61" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="62" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="63" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="64" spans="15:26" ht="13.35" customHeight="1"/>
+    <row r="65" ht="13.35" customHeight="1"/>
+    <row r="66" ht="13.35" customHeight="1"/>
+    <row r="67" ht="13.35" customHeight="1"/>
+    <row r="68" ht="13.35" customHeight="1"/>
+    <row r="69" ht="13.35" customHeight="1"/>
+    <row r="70" ht="13.35" customHeight="1"/>
+    <row r="71" ht="13.35" customHeight="1"/>
+    <row r="72" ht="13.35" customHeight="1"/>
+    <row r="73" ht="13.35" customHeight="1"/>
+    <row r="74" ht="13.35" customHeight="1"/>
+    <row r="75" ht="13.35" customHeight="1"/>
+    <row r="76" ht="13.35" customHeight="1"/>
+    <row r="77" ht="13.35" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
